--- a/6-过程管理/运行记录类文件/工单记录文件/060303-变更审批表（安徽2）.xlsx
+++ b/6-过程管理/运行记录类文件/工单记录文件/060303-变更审批表（安徽2）.xlsx
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
